--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -292,26 +292,28 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="E1">
-            <v>1</v>
-          </cell>
-          <cell r="G1">
-            <v>0</v>
+          <cell r="H1">
+            <v>34</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="G2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>3</v>
+          <cell r="H2">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>19</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>3</v>
+          <cell r="H5">
+            <v>238</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>149</v>
           </cell>
         </row>
       </sheetData>
@@ -334,7 +336,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="G1">
             <v>0</v>
@@ -342,17 +344,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>36</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>36</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -374,28 +376,26 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="H1">
-            <v>34</v>
+          <cell r="E1">
+            <v>3</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="H2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>18</v>
+          <cell r="G2">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>36</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>238</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>143</v>
+          <cell r="G5">
+            <v>36</v>
           </cell>
         </row>
       </sheetData>
@@ -807,33 +807,33 @@
         <v>20</v>
       </c>
       <c r="B2" s="9">
-        <f>[3]Sheet1!$H$2</f>
-        <v>8</v>
+        <f>[1]Sheet1!$H$2</f>
+        <v>7</v>
       </c>
       <c r="C2" s="9">
-        <f>[3]Sheet1!$H$3</f>
-        <v>18</v>
+        <f>[1]Sheet1!$H$3</f>
+        <v>19</v>
       </c>
       <c r="D2" s="9">
-        <f>[3]Sheet1!$H$1</f>
+        <f>[1]Sheet1!$H$1</f>
         <v>34</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.52941176470588236</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
-        <f>[3]Sheet1!$H$6</f>
-        <v>143</v>
+        <f>[1]Sheet1!$H$6</f>
+        <v>149</v>
       </c>
       <c r="H2" s="9">
-        <f>[3]Sheet1!$H$5</f>
+        <f>[1]Sheet1!$H$5</f>
         <v>238</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.60084033613445376</v>
+        <v>0.62605042016806722</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -841,7 +841,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -856,15 +856,15 @@
         <v>10</v>
       </c>
       <c r="B3" s="9">
-        <f>[1]Sheet1!$G$1</f>
+        <f>[2]Sheet1!$G$1</f>
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <f>[1]Sheet1!$G$2</f>
+        <f>[2]Sheet1!$G$2</f>
         <v>1</v>
       </c>
       <c r="D3" s="9">
-        <f>[1]Sheet1!$E$1</f>
+        <f>[2]Sheet1!$E$1</f>
         <v>1</v>
       </c>
       <c r="E3" s="19">
@@ -873,11 +873,11 @@
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="12">
-        <f>[1]Sheet1!$G$5</f>
+        <f>[2]Sheet1!$G$5</f>
         <v>3</v>
       </c>
       <c r="H3" s="9">
-        <f>[1]Sheet1!$G$4</f>
+        <f>[2]Sheet1!$G$4</f>
         <v>3</v>
       </c>
       <c r="I3" s="22">
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.66666666666666663</v>
+        <v>0.69696969696969702</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -912,15 +912,15 @@
         <v>11</v>
       </c>
       <c r="B4" s="9">
-        <f>[2]Sheet1!$G$1</f>
+        <f>[3]Sheet1!$G$1</f>
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <f>[2]Sheet1!$G$2</f>
+        <f>[3]Sheet1!$G$2</f>
         <v>3</v>
       </c>
       <c r="D4" s="9">
-        <f>[2]Sheet1!$E$1</f>
+        <f>[3]Sheet1!$E$1</f>
         <v>3</v>
       </c>
       <c r="E4" s="19">
@@ -929,11 +929,11 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
-        <f>[2]Sheet1!$G$5</f>
+        <f>[3]Sheet1!$G$5</f>
         <v>36</v>
       </c>
       <c r="H4" s="9">
-        <f>[2]Sheet1!$G$4</f>
+        <f>[3]Sheet1!$G$4</f>
         <v>36</v>
       </c>
       <c r="I4" s="22">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.54819277108433739</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -303,17 +303,17 @@
         </row>
         <row r="3">
           <cell r="H3">
-            <v>19</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>238</v>
+            <v>249</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>149</v>
+            <v>150</v>
           </cell>
         </row>
       </sheetData>
@@ -421,7 +421,7 @@
             <v>10</v>
           </cell>
           <cell r="G1">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="2">
@@ -799,7 +799,7 @@
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -820,20 +820,20 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.55882352941176472</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.62605042016806722</v>
+        <v>0.60240963855421692</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -841,14 +841,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.69696969696969702</v>
+        <v>0.68571428571428572</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
       </c>
       <c r="B5" s="9">
         <f>[4]Sheet1!$G$1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9">
         <f>[4]Sheet1!$G$2</f>
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.5662650602409639</v>
+        <v>0.55102040816326525</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -293,7 +293,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>34</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="2">
@@ -303,17 +303,17 @@
         </row>
         <row r="3">
           <cell r="H3">
-            <v>20</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>249</v>
+            <v>213</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>150</v>
+            <v>121</v>
           </cell>
         </row>
       </sheetData>
@@ -792,14 +792,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.72916666666666663</v>
+        <v>0.73809523809523814</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,28 +812,28 @@
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.58823529411764708</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.60240963855421692</v>
+        <v>0.568075117370892</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -848,7 +848,7 @@
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.5</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.68571428571428572</v>
+        <v>0.64516129032258063</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.55102040816326525</v>
+        <v>0.52117263843648209</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -421,22 +421,22 @@
             <v>10</v>
           </cell>
           <cell r="G1">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
       </sheetData>
@@ -799,7 +799,7 @@
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.73809523809523814</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,14 +841,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.47619047619047616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.64516129032258063</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -951,11 +951,11 @@
       </c>
       <c r="B5" s="9">
         <f>[4]Sheet1!$G$1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9">
         <f>[4]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9">
         <f>[4]Sheet1!$E$1</f>
@@ -963,20 +963,20 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5" si="2">C5/D5</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12">
         <f>[4]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="9">
         <f>[4]Sheet1!$G$4</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ref="I5" si="3">G5/H5</f>
-        <v>0</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.52117263843648209</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -293,27 +293,27 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>28</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="2">
           <cell r="H2">
-            <v>7</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>16</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>213</v>
+            <v>227</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>121</v>
+            <v>143</v>
           </cell>
         </row>
       </sheetData>
@@ -421,22 +421,22 @@
             <v>10</v>
           </cell>
           <cell r="G1">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>9</v>
           </cell>
         </row>
       </sheetData>
@@ -792,14 +792,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.73809523809523814</v>
+        <v>0.86046511627906974</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,32 +808,32 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.5714285714285714</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.568075117370892</v>
+        <v>0.62995594713656389</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -848,7 +848,7 @@
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.47619047619047616</v>
+        <v>0.60465116279069764</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.64516129032258063</v>
+        <v>0.70270270270270274</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -951,11 +951,11 @@
       </c>
       <c r="B5" s="9">
         <f>[4]Sheet1!$G$1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9">
         <f>[4]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9">
         <f>[4]Sheet1!$E$1</f>
@@ -963,20 +963,20 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5" si="2">C5/D5</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12">
         <f>[4]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H5" s="9">
         <f>[4]Sheet1!$G$4</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ref="I5" si="3">G5/H5</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.52117263843648209</v>
+        <v>0.59687500000000004</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -293,32 +293,32 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>28</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="2">
           <cell r="H2">
-            <v>7</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>16</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>213</v>
+            <v>227</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>121</v>
+            <v>143</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -436,7 +436,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>10</v>
+            <v>9</v>
           </cell>
         </row>
       </sheetData>
@@ -737,7 +737,7 @@
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,14 +792,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.8571428571428571</v>
+        <v>0.86046511627906974</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,32 +808,32 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.5714285714285714</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.568075117370892</v>
+        <v>0.62995594713656389</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -841,14 +841,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.5714285714285714</v>
+        <v>0.60465116279069764</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.66666666666666663</v>
+        <v>0.70270270270270274</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="12">
         <f>[4]Sheet1!$G$5</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="9">
         <f>[4]Sheet1!$G$4</f>
@@ -976,7 +976,7 @@
       </c>
       <c r="I5" s="22">
         <f t="shared" ref="I5" si="3">G5/H5</f>
-        <v>0.18518518518518517</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.55555555555555558</v>
+        <v>0.59687500000000004</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -298,27 +298,27 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>6</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>18</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>227</v>
+            <v>230</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>143</v>
+            <v>149</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -808,11 +808,11 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -820,20 +820,20 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.62068965517241381</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.62995594713656389</v>
+        <v>0.64782608695652177</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -841,7 +841,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.60465116279069764</v>
+        <v>0.62790697674418605</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.70270270270270274</v>
+        <v>0.72972972972972971</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.59687500000000004</v>
+        <v>0.6099071207430341</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -298,22 +298,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>19</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>230</v>
+            <v>232</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>149</v>
+            <v>159</v>
           </cell>
         </row>
       </sheetData>
@@ -808,11 +808,11 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -820,20 +820,20 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.65517241379310343</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.64782608695652177</v>
+        <v>0.68534482758620685</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -841,7 +841,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.62790697674418605</v>
+        <v>0.65116279069767447</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.72972972972972971</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.6099071207430341</v>
+        <v>0.63692307692307693</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -418,7 +418,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="G1">
             <v>5</v>
@@ -426,17 +426,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>54</v>
+            <v>56</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
       </sheetData>
@@ -792,14 +792,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.86046511627906974</v>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -890,21 +890,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.65116279069767447</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.7567567567567568</v>
+        <v>0.76315789473684215</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -955,28 +955,28 @@
       </c>
       <c r="C5" s="9">
         <f>[4]Sheet1!$G$2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9">
         <f>[4]Sheet1!$E$1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5" si="2">C5/D5</f>
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12">
         <f>[4]Sheet1!$G$5</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="9">
         <f>[4]Sheet1!$G$4</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ref="I5" si="3">G5/H5</f>
-        <v>0.16666666666666666</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.63692307692307693</v>
+        <v>0.63914373088685017</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -293,7 +293,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>29</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="2">
@@ -308,7 +308,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>232</v>
+            <v>233</v>
           </cell>
         </row>
         <row r="6">
@@ -792,14 +792,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.86363636363636365</v>
+        <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,11 +816,11 @@
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.68965517241379315</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
@@ -829,11 +829,11 @@
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.68534482758620685</v>
+        <v>0.68240343347639487</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -897,7 +897,7 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.65909090909090906</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.63914373088685017</v>
+        <v>0.63719512195121952</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -418,7 +418,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="G1">
             <v>5</v>
@@ -431,7 +431,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>56</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="5">
@@ -792,14 +792,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.84444444444444444</v>
+        <v>0.82608695652173914</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.64444444444444449</v>
+        <v>0.63043478260869568</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -959,11 +959,11 @@
       </c>
       <c r="D5" s="9">
         <f>[4]Sheet1!$E$1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5" si="2">C5/D5</f>
-        <v>0.45454545454545453</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12">
@@ -972,11 +972,11 @@
       </c>
       <c r="H5" s="9">
         <f>[4]Sheet1!$G$4</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" ref="I5" si="3">G5/H5</f>
-        <v>0.19642857142857142</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
@@ -984,7 +984,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.63719512195121952</v>
+        <v>0.62951807228915657</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -16,13 +16,14 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Total Ready to Write: </t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>Running</t>
+  </si>
+  <si>
+    <t>JobHistory</t>
   </si>
 </sst>
 </file>
@@ -437,6 +441,47 @@
         <row r="5">
           <cell r="G5">
             <v>11</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="E1">
+            <v>1</v>
+          </cell>
+          <cell r="G1">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -737,7 +782,7 @@
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.82608695652173914</v>
+        <v>0.82978723404255317</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,48 +886,48 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9">
-        <f>[2]Sheet1!$G$1</f>
+        <f>[5]Sheet1!$G$1</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <f>[5]Sheet1!$G$2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="9">
-        <f>[2]Sheet1!$G$2</f>
-        <v>1</v>
-      </c>
       <c r="D3" s="9">
-        <f>[2]Sheet1!$E$1</f>
+        <f>[5]Sheet1!$E$1</f>
         <v>1</v>
       </c>
       <c r="E3" s="19">
         <f>C3/D3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="12">
-        <f>[2]Sheet1!$G$5</f>
-        <v>3</v>
+        <f>[5]Sheet1!$G$5</f>
+        <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>[2]Sheet1!$G$4</f>
-        <v>3</v>
+        <f>[5]Sheet1!$G$4</f>
+        <v>7</v>
       </c>
       <c r="I3" s="22">
         <f>G3/H3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="4" t="s">
@@ -897,31 +942,31 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.63043478260869568</v>
+        <v>0.61702127659574468</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.76315789473684215</v>
+        <v>0.74358974358974361</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9">
-        <f>[3]Sheet1!$G$1</f>
+        <f>[2]Sheet1!$G$1</f>
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <f>[3]Sheet1!$G$2</f>
-        <v>3</v>
+        <f>[2]Sheet1!$G$2</f>
+        <v>1</v>
       </c>
       <c r="D4" s="9">
-        <f>[3]Sheet1!$E$1</f>
-        <v>3</v>
+        <f>[2]Sheet1!$E$1</f>
+        <v>1</v>
       </c>
       <c r="E4" s="19">
         <f>C4/D4</f>
@@ -929,12 +974,12 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
-        <f>[3]Sheet1!$G$5</f>
-        <v>36</v>
+        <f>[2]Sheet1!$G$5</f>
+        <v>3</v>
       </c>
       <c r="H4" s="9">
-        <f>[3]Sheet1!$G$4</f>
-        <v>36</v>
+        <f>[2]Sheet1!$G$4</f>
+        <v>3</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
@@ -947,36 +992,36 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" s="9">
-        <f>[4]Sheet1!$G$1</f>
-        <v>5</v>
+        <f>[3]Sheet1!$G$1</f>
+        <v>0</v>
       </c>
       <c r="C5" s="9">
-        <f>[4]Sheet1!$G$2</f>
-        <v>5</v>
+        <f>[3]Sheet1!$G$2</f>
+        <v>3</v>
       </c>
       <c r="D5" s="9">
-        <f>[4]Sheet1!$E$1</f>
-        <v>12</v>
+        <f>[3]Sheet1!$E$1</f>
+        <v>3</v>
       </c>
       <c r="E5" s="19">
-        <f t="shared" ref="E5" si="2">C5/D5</f>
-        <v>0.41666666666666669</v>
+        <f>C5/D5</f>
+        <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12">
-        <f>[4]Sheet1!$G$5</f>
-        <v>11</v>
+        <f>[3]Sheet1!$G$5</f>
+        <v>36</v>
       </c>
       <c r="H5" s="9">
-        <f>[4]Sheet1!$G$4</f>
-        <v>60</v>
+        <f>[3]Sheet1!$G$4</f>
+        <v>36</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" ref="I5" si="3">G5/H5</f>
-        <v>0.18333333333333332</v>
+        <f>G5/H5</f>
+        <v>1</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
@@ -984,19 +1029,43 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9">
+        <f>[4]Sheet1!$G$1</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <f>[4]Sheet1!$G$2</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <f>[4]Sheet1!$E$1</f>
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" ref="E6" si="2">C6/D6</f>
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="12">
+        <f>[4]Sheet1!$G$5</f>
+        <v>11</v>
+      </c>
+      <c r="H6" s="9">
+        <f>[4]Sheet1!$G$4</f>
+        <v>60</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" ref="I6" si="3">G6/H6</f>
+        <v>0.18333333333333332</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -1022,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.62951807228915657</v>
+        <v>0.61651917404129797</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1093,6 +1162,14 @@
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -348,17 +348,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>3</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -381,7 +381,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="G1">
             <v>0</v>
@@ -389,17 +389,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>36</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>36</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -422,25 +422,25 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>12</v>
+            <v>3</v>
           </cell>
           <cell r="G1">
-            <v>5</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>60</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>11</v>
+            <v>36</v>
           </cell>
         </row>
       </sheetData>
@@ -463,25 +463,25 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>1</v>
+            <v>12</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>7</v>
+            <v>61</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>15</v>
           </cell>
         </row>
       </sheetData>
@@ -844,7 +844,7 @@
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.82978723404255317</v>
+        <v>0.80851063829787229</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -901,15 +901,15 @@
         <v>22</v>
       </c>
       <c r="B3" s="9">
-        <f>[5]Sheet1!$G$1</f>
-        <v>1</v>
+        <f>[2]Sheet1!$G$1</f>
+        <v>0</v>
       </c>
       <c r="C3" s="9">
-        <f>[5]Sheet1!$G$2</f>
+        <f>[2]Sheet1!$G$2</f>
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <f>[5]Sheet1!$E$1</f>
+        <f>[2]Sheet1!$E$1</f>
         <v>1</v>
       </c>
       <c r="E3" s="19">
@@ -918,11 +918,11 @@
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="12">
-        <f>[5]Sheet1!$G$5</f>
+        <f>[2]Sheet1!$G$5</f>
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>[5]Sheet1!$G$4</f>
+        <f>[2]Sheet1!$G$4</f>
         <v>7</v>
       </c>
       <c r="I3" s="22">
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.61702127659574468</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.74358974358974361</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -957,15 +957,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="9">
-        <f>[2]Sheet1!$G$1</f>
+        <f>[3]Sheet1!$G$1</f>
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <f>[2]Sheet1!$G$2</f>
+        <f>[3]Sheet1!$G$2</f>
         <v>1</v>
       </c>
       <c r="D4" s="9">
-        <f>[2]Sheet1!$E$1</f>
+        <f>[3]Sheet1!$E$1</f>
         <v>1</v>
       </c>
       <c r="E4" s="19">
@@ -974,11 +974,11 @@
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
-        <f>[2]Sheet1!$G$5</f>
+        <f>[3]Sheet1!$G$5</f>
         <v>3</v>
       </c>
       <c r="H4" s="9">
-        <f>[2]Sheet1!$G$4</f>
+        <f>[3]Sheet1!$G$4</f>
         <v>3</v>
       </c>
       <c r="I4" s="22">
@@ -995,15 +995,15 @@
         <v>11</v>
       </c>
       <c r="B5" s="9">
-        <f>[3]Sheet1!$G$1</f>
+        <f>[4]Sheet1!$G$1</f>
         <v>0</v>
       </c>
       <c r="C5" s="9">
-        <f>[3]Sheet1!$G$2</f>
+        <f>[4]Sheet1!$G$2</f>
         <v>3</v>
       </c>
       <c r="D5" s="9">
-        <f>[3]Sheet1!$E$1</f>
+        <f>[4]Sheet1!$E$1</f>
         <v>3</v>
       </c>
       <c r="E5" s="19">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12">
-        <f>[3]Sheet1!$G$5</f>
+        <f>[4]Sheet1!$G$5</f>
         <v>36</v>
       </c>
       <c r="H5" s="9">
-        <f>[3]Sheet1!$G$4</f>
+        <f>[4]Sheet1!$G$4</f>
         <v>36</v>
       </c>
       <c r="I5" s="22">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1038,33 +1038,33 @@
         <v>21</v>
       </c>
       <c r="B6" s="9">
-        <f>[4]Sheet1!$G$1</f>
-        <v>5</v>
+        <f>[5]Sheet1!$G$1</f>
+        <v>4</v>
       </c>
       <c r="C6" s="9">
-        <f>[4]Sheet1!$G$2</f>
-        <v>5</v>
+        <f>[5]Sheet1!$G$2</f>
+        <v>6</v>
       </c>
       <c r="D6" s="9">
-        <f>[4]Sheet1!$E$1</f>
+        <f>[5]Sheet1!$E$1</f>
         <v>12</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
-        <f>[4]Sheet1!$G$5</f>
-        <v>11</v>
+        <f>[5]Sheet1!$G$5</f>
+        <v>15</v>
       </c>
       <c r="H6" s="9">
-        <f>[4]Sheet1!$G$4</f>
-        <v>60</v>
+        <f>[5]Sheet1!$G$4</f>
+        <v>61</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.18333333333333332</v>
+        <v>0.24590163934426229</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.61651917404129797</v>
+        <v>0.62647058823529411</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -312,12 +312,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>233</v>
+            <v>235</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>159</v>
+            <v>161</v>
           </cell>
         </row>
       </sheetData>
@@ -870,15 +870,15 @@
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.68240343347639487</v>
+        <v>0.68510638297872339</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.62647058823529411</v>
+        <v>0.62865497076023391</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -302,22 +302,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>20</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>235</v>
+            <v>234</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>161</v>
+            <v>165</v>
           </cell>
         </row>
       </sheetData>
@@ -422,7 +422,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="G1">
             <v>0</v>
@@ -430,17 +430,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>36</v>
+            <v>61</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>36</v>
+            <v>61</v>
           </cell>
         </row>
       </sheetData>
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.80851063829787229</v>
+        <v>0.81632653061224492</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,11 +853,11 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -865,20 +865,20 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.66666666666666663</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.68510638297872339</v>
+        <v>0.70512820512820518</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.63829787234042556</v>
+        <v>0.67346938775510201</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.78947368421052633</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1000,11 +1000,11 @@
       </c>
       <c r="C5" s="9">
         <f>[4]Sheet1!$G$2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9">
         <f>[4]Sheet1!$E$1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="19">
         <f>C5/D5</f>
@@ -1013,11 +1013,11 @@
       <c r="F5" s="16"/>
       <c r="G5" s="12">
         <f>[4]Sheet1!$G$5</f>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H5" s="9">
         <f>[4]Sheet1!$G$4</f>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I5" s="22">
         <f>G5/H5</f>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.62865497076023391</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -340,7 +340,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="G1">
             <v>0</v>
@@ -353,12 +353,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>7</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -381,7 +381,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="G1">
             <v>0</v>
@@ -394,7 +394,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>3</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="5">
@@ -476,12 +476,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>61</v>
+            <v>63</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>15</v>
+            <v>16</v>
           </cell>
         </row>
       </sheetData>
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.81632653061224492</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
       </c>
       <c r="D3" s="9">
         <f>[2]Sheet1!$E$1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="19">
         <f>C3/D3</f>
@@ -919,15 +919,15 @@
       <c r="F3" s="16"/>
       <c r="G3" s="12">
         <f>[2]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="9">
         <f>[2]Sheet1!$G$4</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I3" s="22">
         <f>G3/H3</f>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="4" t="s">
@@ -942,7 +942,7 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.67346938775510201</v>
+        <v>0.63461538461538458</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -966,11 +966,11 @@
       </c>
       <c r="D4" s="9">
         <f>[3]Sheet1!$E$1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="19">
         <f>C4/D4</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
@@ -979,11 +979,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1056,15 +1056,15 @@
       <c r="F6" s="16"/>
       <c r="G6" s="12">
         <f>[5]Sheet1!$G$5</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.24590163934426229</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.66666666666666663</v>
+        <v>0.6465968586387435</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -297,12 +297,12 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>30</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="2">
           <cell r="H2">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="3">
@@ -312,7 +312,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>234</v>
+            <v>242</v>
           </cell>
         </row>
         <row r="6">
@@ -340,7 +340,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="G1">
             <v>0</v>
@@ -348,17 +348,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>15</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -381,7 +381,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="G1">
             <v>0</v>
@@ -389,12 +389,12 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>9</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="5">
@@ -435,12 +435,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>61</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>61</v>
+            <v>62</v>
           </cell>
         </row>
       </sheetData>
@@ -466,12 +466,12 @@
             <v>12</v>
           </cell>
           <cell r="G1">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>6</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="4">
@@ -481,7 +481,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>16</v>
+            <v>17</v>
           </cell>
         </row>
       </sheetData>
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.76923076923076927</v>
+        <v>0.7192982456140351</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
@@ -861,11 +861,11 @@
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.7</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
@@ -874,11 +874,11 @@
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.70512820512820518</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -893,12 +893,12 @@
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9">
         <f>[2]Sheet1!$G$1</f>
@@ -906,28 +906,28 @@
       </c>
       <c r="C3" s="9">
         <f>[2]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9">
         <f>[2]Sheet1!$E$1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="19">
         <f>C3/D3</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="12">
         <f>[2]Sheet1!$G$5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="9">
         <f>[2]Sheet1!$G$4</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I3" s="22">
         <f>G3/H3</f>
-        <v>0.13333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="4" t="s">
@@ -935,26 +935,26 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.63461538461538458</v>
+        <v>0.59649122807017541</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.82499999999999996</v>
+        <v>0.82926829268292679</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9">
         <f>[3]Sheet1!$G$1</f>
@@ -962,15 +962,15 @@
       </c>
       <c r="C4" s="9">
         <f>[3]Sheet1!$G$2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f>[3]Sheet1!$E$1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="19">
         <f>C4/D4</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
@@ -979,11 +979,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.33333333333333331</v>
+        <v>0.15</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1013,11 +1013,11 @@
       <c r="F5" s="16"/>
       <c r="G5" s="12">
         <f>[4]Sheet1!$G$5</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="9">
         <f>[4]Sheet1!$G$4</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="22">
         <f>G5/H5</f>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1039,11 +1039,11 @@
       </c>
       <c r="B6" s="9">
         <f>[5]Sheet1!$G$1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9">
         <f>[5]Sheet1!$G$2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="9">
         <f>[5]Sheet1!$E$1</f>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
         <f>[5]Sheet1!$G$5</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.25396825396825395</v>
+        <v>0.26984126984126983</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.6465968586387435</v>
+        <v>0.63131313131313127</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -302,22 +302,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>21</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>242</v>
+            <v>243</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>165</v>
+            <v>171</v>
           </cell>
         </row>
       </sheetData>
@@ -853,11 +853,11 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -865,20 +865,20 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.63636363636363635</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.68181818181818177</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -886,7 +886,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.59649122807017541</v>
+        <v>0.61403508771929827</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.82926829268292679</v>
+        <v>0.85365853658536583</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.63131313131313127</v>
+        <v>0.64483627204030225</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -302,12 +302,12 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>22</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="5">
@@ -317,7 +317,7 @@
         </row>
         <row r="6">
           <cell r="H6">
-            <v>171</v>
+            <v>176</v>
           </cell>
         </row>
       </sheetData>
@@ -853,11 +853,11 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -865,12 +865,12 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.66666666666666663</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
@@ -878,7 +878,7 @@
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.70370370370370372</v>
+        <v>0.72427983539094654</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -886,7 +886,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.61403508771929827</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.85365853658536583</v>
+        <v>0.87804878048780488</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.64483627204030225</v>
+        <v>0.65743073047858946</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -463,7 +463,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="G1">
             <v>3</v>
@@ -471,17 +471,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>63</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>17</v>
+            <v>25</v>
           </cell>
         </row>
       </sheetData>
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.7192982456140351</v>
+        <v>0.72413793103448276</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.63157894736842102</v>
+        <v>0.63793103448275867</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.87804878048780488</v>
+        <v>0.88095238095238093</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1043,28 +1043,28 @@
       </c>
       <c r="C6" s="9">
         <f>[5]Sheet1!$G$2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9">
         <f>[5]Sheet1!$E$1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.58333333333333337</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
         <f>[5]Sheet1!$G$5</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.26984126984126983</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.65743073047858946</v>
+        <v>0.68274111675126903</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -463,10 +463,10 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="G1">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
@@ -476,12 +476,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>60</v>
+            <v>59</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>25</v>
+            <v>28</v>
           </cell>
         </row>
       </sheetData>
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.72413793103448276</v>
+        <v>0.7192982456140351</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -942,14 +942,14 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.63793103448275867</v>
+        <v>0.64912280701754388</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.88095238095238093</v>
+        <v>0.90243902439024393</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B6" s="9">
         <f>[5]Sheet1!$G$1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9">
         <f>[5]Sheet1!$G$2</f>
@@ -1047,24 +1047,24 @@
       </c>
       <c r="D6" s="9">
         <f>[5]Sheet1!$E$1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.61538461538461542</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
         <f>[5]Sheet1!$G$5</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.41666666666666669</v>
+        <v>0.47457627118644069</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.68274111675126903</v>
+        <v>0.69211195928753177</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -302,22 +302,22 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>23</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>243</v>
+            <v>250</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>176</v>
+            <v>193</v>
           </cell>
         </row>
       </sheetData>
@@ -853,11 +853,11 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -865,20 +865,20 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.69696969696969702</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.72427983539094654</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -886,7 +886,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.64912280701754388</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.90243902439024393</v>
+        <v>0.92682926829268297</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.69211195928753177</v>
+        <v>0.72250000000000003</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -302,12 +302,12 @@
         </row>
         <row r="2">
           <cell r="H2">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="H3">
-            <v>24</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="5">
@@ -317,7 +317,7 @@
         </row>
         <row r="6">
           <cell r="H6">
-            <v>193</v>
+            <v>196</v>
           </cell>
         </row>
       </sheetData>
@@ -853,11 +853,11 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
@@ -865,12 +865,12 @@
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.72727272727272729</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
@@ -878,7 +878,7 @@
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.77200000000000002</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -886,7 +886,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.66666666666666663</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.92682926829268297</v>
+        <v>0.95121951219512191</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.72250000000000003</v>
+        <v>0.73</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -466,12 +466,12 @@
             <v>12</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="4">
@@ -481,7 +481,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>28</v>
+            <v>34</v>
           </cell>
         </row>
       </sheetData>
@@ -886,7 +886,7 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.68421052631578949</v>
+        <v>0.70175438596491224</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.95121951219512191</v>
+        <v>0.97560975609756095</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1039,11 +1039,11 @@
       </c>
       <c r="B6" s="9">
         <f>[5]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9">
         <f>[5]Sheet1!$G$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9">
         <f>[5]Sheet1!$E$1</f>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
         <f>[5]Sheet1!$G$5</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.47457627118644069</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.73</v>
+        <v>0.745</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -384,22 +384,22 @@
             <v>4</v>
           </cell>
           <cell r="G1">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>20</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>3</v>
+            <v>15</v>
           </cell>
         </row>
       </sheetData>
@@ -844,7 +844,7 @@
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.7192982456140351</v>
+        <v>0.77192982456140347</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.70175438596491224</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.97560975609756095</v>
+        <v>0.95454545454545459</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -958,11 +958,11 @@
       </c>
       <c r="B4" s="9">
         <f>[3]Sheet1!$G$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9">
         <f>[3]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="9">
         <f>[3]Sheet1!$E$1</f>
@@ -970,20 +970,20 @@
       </c>
       <c r="E4" s="19">
         <f>C4/D4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
         <f>[3]Sheet1!$G$5</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.15</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.745</v>
+        <v>0.77306733167082298</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -394,7 +394,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>21</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="5">
@@ -979,11 +979,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.7142857142857143</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.77306733167082298</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -312,12 +312,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>250</v>
+            <v>256</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>196</v>
+            <v>202</v>
           </cell>
         </row>
       </sheetData>
@@ -870,15 +870,15 @@
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.78400000000000003</v>
+        <v>0.7890625</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.76923076923076927</v>
+        <v>0.77261613691931541</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -384,7 +384,7 @@
             <v>4</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
@@ -394,7 +394,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>23</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="5">
@@ -844,7 +844,7 @@
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.77192982456140347</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.95454545454545459</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
       </c>
       <c r="B4" s="9">
         <f>[3]Sheet1!$G$1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9">
         <f>[3]Sheet1!$G$2</f>
@@ -979,11 +979,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.65217391304347827</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.77261613691931541</v>
+        <v>0.77450980392156865</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -381,7 +381,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="G1">
             <v>2</v>
@@ -389,17 +389,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>22</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>15</v>
+            <v>17</v>
           </cell>
         </row>
       </sheetData>
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.78947368421052633</v>
+        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.73684210526315785</v>
+        <v>0.74137931034482762</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.93333333333333335</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -962,28 +962,28 @@
       </c>
       <c r="C4" s="9">
         <f>[3]Sheet1!$G$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="9">
         <f>[3]Sheet1!$E$1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="19">
         <f>C4/D4</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
         <f>[3]Sheet1!$G$5</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.68181818181818177</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.77450980392156865</v>
+        <v>0.775609756097561</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -297,12 +297,12 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="2">
           <cell r="H2">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="3">
@@ -312,7 +312,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>256</v>
+            <v>263</v>
           </cell>
         </row>
         <row r="6">
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.7931034482758621</v>
+        <v>0.81355932203389836</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
@@ -861,11 +861,11 @@
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.75757575757575757</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
@@ -874,11 +874,11 @@
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.7890625</v>
+        <v>0.76806083650190116</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -942,14 +942,14 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.74137931034482762</v>
+        <v>0.72881355932203384</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.93478260869565222</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.775609756097561</v>
+        <v>0.76258992805755399</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -297,12 +297,12 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>34</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="2">
           <cell r="H2">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="3">
@@ -312,7 +312,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>263</v>
+            <v>266</v>
           </cell>
         </row>
         <row r="6">
@@ -394,12 +394,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>24</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>17</v>
+            <v>16</v>
           </cell>
         </row>
       </sheetData>
@@ -463,7 +463,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>12</v>
+            <v>14</v>
           </cell>
           <cell r="G1">
             <v>1</v>
@@ -476,7 +476,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>59</v>
+            <v>73</v>
           </cell>
         </row>
         <row r="5">
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.81355932203389836</v>
+        <v>0.79032258064516125</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="B2" s="9">
         <f>[1]Sheet1!$H$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <f>[1]Sheet1!$H$3</f>
@@ -861,11 +861,11 @@
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.73529411764705888</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
@@ -874,11 +874,11 @@
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.76806083650190116</v>
+        <v>0.75939849624060152</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -942,14 +942,14 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.72881355932203384</v>
+        <v>0.69354838709677424</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.89583333333333337</v>
+        <v>0.87755102040816324</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -975,15 +975,15 @@
       <c r="F4" s="16"/>
       <c r="G4" s="12">
         <f>[3]Sheet1!$G$5</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.70833333333333337</v>
+        <v>0.64</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1047,11 +1047,11 @@
       </c>
       <c r="D6" s="9">
         <f>[5]Sheet1!$E$1</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.75</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.57627118644067798</v>
+        <v>0.46575342465753422</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.76258992805755399</v>
+        <v>0.72873563218390802</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -312,12 +312,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>266</v>
+            <v>276</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>202</v>
+            <v>212</v>
           </cell>
         </row>
       </sheetData>
@@ -870,15 +870,15 @@
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.75939849624060152</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.72873563218390802</v>
+        <v>0.73483146067415728</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -381,10 +381,10 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="2">
@@ -394,7 +394,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>25</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="5">
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.79032258064516125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,14 +886,14 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -942,14 +942,14 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.69354838709677424</v>
+        <v>0.671875</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.87755102040816324</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
       </c>
       <c r="B4" s="9">
         <f>[3]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9">
         <f>[3]Sheet1!$G$2</f>
@@ -966,11 +966,11 @@
       </c>
       <c r="D4" s="9">
         <f>[3]Sheet1!$E$1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="19">
         <f>C4/D4</f>
-        <v>0.6</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
@@ -979,11 +979,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.64</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.73483146067415728</v>
+        <v>0.71553610503282272</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -297,7 +297,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>35</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="2">
@@ -312,12 +312,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>276</v>
+            <v>279</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>212</v>
+            <v>213</v>
           </cell>
         </row>
       </sheetData>
@@ -394,7 +394,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>37</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="5">
@@ -476,7 +476,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>73</v>
+            <v>75</v>
           </cell>
         </row>
         <row r="5">
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.78125</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,24 +861,24 @@
       </c>
       <c r="D2" s="9">
         <f>[1]Sheet1!$H$1</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" ref="E2" si="0">C2/D2</f>
-        <v>0.7142857142857143</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="12">
         <f>[1]Sheet1!$H$6</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.76811594202898548</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -942,7 +942,7 @@
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.671875</v>
+        <v>0.66153846153846152</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -979,11 +979,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.43243243243243246</v>
+        <v>0.4</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.46575342465753422</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.71553610503282272</v>
+        <v>0.70537634408602146</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -348,7 +348,7 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
@@ -358,7 +358,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>3</v>
+            <v>6</v>
           </cell>
         </row>
       </sheetData>
@@ -463,7 +463,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>14</v>
+            <v>15</v>
           </cell>
           <cell r="G1">
             <v>1</v>
@@ -471,17 +471,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>75</v>
+            <v>79</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>34</v>
+            <v>37</v>
           </cell>
         </row>
       </sheetData>
@@ -837,14 +837,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.76923076923076927</v>
+        <v>0.78787878787878785</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
       </c>
       <c r="C3" s="9">
         <f>[2]Sheet1!$G$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="9">
         <f>[2]Sheet1!$E$1</f>
@@ -914,12 +914,12 @@
       </c>
       <c r="E3" s="19">
         <f>C3/D3</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="12">
         <f>[2]Sheet1!$G$5</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <f>[2]Sheet1!$G$4</f>
@@ -927,7 +927,7 @@
       </c>
       <c r="I3" s="22">
         <f>G3/H3</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="4" t="s">
@@ -935,21 +935,21 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.66153846153846152</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.86</v>
+        <v>0.86538461538461542</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1043,28 +1043,28 @@
       </c>
       <c r="C6" s="9">
         <f>[5]Sheet1!$G$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="9">
         <f>[5]Sheet1!$E$1</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.6428571428571429</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
         <f>[5]Sheet1!$G$5</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.45333333333333331</v>
+        <v>0.46835443037974683</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.70537634408602146</v>
+        <v>0.71215351812366734</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -312,7 +312,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>279</v>
+            <v>280</v>
           </cell>
         </row>
         <row r="6">
@@ -394,7 +394,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>40</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="5">
@@ -476,12 +476,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>79</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>37</v>
+            <v>38</v>
           </cell>
         </row>
       </sheetData>
@@ -874,11 +874,11 @@
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.76344086021505375</v>
+        <v>0.76071428571428568</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -979,11 +979,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.4</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1056,15 +1056,15 @@
       <c r="F6" s="16"/>
       <c r="G6" s="12">
         <f>[5]Sheet1!$G$5</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9">
         <f>[5]Sheet1!$G$4</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.46835443037974683</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.71215351812366734</v>
+        <v>0.7097457627118644</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\IntegrationPoints\QA\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20580" windowHeight="11640"/>
   </bookViews>
@@ -18,7 +23,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -281,6 +286,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -312,7 +320,7 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>280</v>
+            <v>284</v>
           </cell>
         </row>
         <row r="6">
@@ -394,7 +402,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>41</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="5">
@@ -535,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,11 +882,11 @@
       </c>
       <c r="H2" s="9">
         <f>[1]Sheet1!$H$5</f>
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2" si="1">G2/H2</f>
-        <v>0.76071428571428568</v>
+        <v>0.75</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4" t="s">
@@ -979,11 +987,11 @@
       </c>
       <c r="H4" s="9">
         <f>[3]Sheet1!$G$4</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.3902439024390244</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1029,7 +1037,7 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1091,7 +1099,7 @@
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.7097457627118644</v>
+        <v>0.70083682008368198</v>
       </c>
       <c r="M7" s="3"/>
     </row>

--- a/QA/Tests/_Test_Suite_Total_Statistics.xlsx
+++ b/QA/Tests/_Test_Suite_Total_Statistics.xlsx
@@ -22,13 +22,14 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Total Ready to Write: </t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>JobHistory</t>
+  </si>
+  <si>
+    <t>FTP</t>
   </si>
 </sst>
 </file>
@@ -490,6 +494,49 @@
         <row r="5">
           <cell r="G5">
             <v>38</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="H1">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="H2">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>20</v>
           </cell>
         </row>
       </sheetData>
@@ -790,7 +837,7 @@
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,14 +892,14 @@
       </c>
       <c r="L1" s="4">
         <f>SUM($D:$D)</f>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="7">
         <f>N2/L1</f>
-        <v>0.78787878787878785</v>
+        <v>0.80232558139534882</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,48 +941,48 @@
       </c>
       <c r="L2" s="4">
         <f>SUM($B:$B)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <f>SUM(L2:L3)</f>
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9">
-        <f>[2]Sheet1!$G$1</f>
-        <v>0</v>
+        <f>[6]Sheet1!$H$2</f>
+        <v>14</v>
       </c>
       <c r="C3" s="9">
-        <f>[2]Sheet1!$G$2</f>
-        <v>2</v>
+        <f>[6]Sheet1!$H$3</f>
+        <v>3</v>
       </c>
       <c r="D3" s="9">
-        <f>[2]Sheet1!$E$1</f>
-        <v>3</v>
+        <f>[6]Sheet1!$H$1</f>
+        <v>20</v>
       </c>
       <c r="E3" s="19">
-        <f>C3/D3</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="E3" si="2">C3/D3</f>
+        <v>0.15</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="12">
-        <f>[2]Sheet1!$G$5</f>
-        <v>6</v>
+        <f>[6]Sheet1!$H$6</f>
+        <v>20</v>
       </c>
       <c r="H3" s="9">
-        <f>[2]Sheet1!$G$4</f>
-        <v>9</v>
+        <f>[6]Sheet1!$H$5</f>
+        <v>82</v>
       </c>
       <c r="I3" s="22">
-        <f>G3/H3</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="I3" si="3">G3/H3</f>
+        <v>0.24390243902439024</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="4" t="s">
@@ -943,55 +990,55 @@
       </c>
       <c r="L3" s="4">
         <f>SUM($C:$C)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="7">
         <f>L3/L1</f>
-        <v>0.68181818181818177</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="24">
         <f>L3/N2</f>
-        <v>0.86538461538461542</v>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9">
-        <f>[3]Sheet1!$G$1</f>
+        <f>[2]Sheet1!$G$1</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <f>[2]Sheet1!$G$2</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <f>[2]Sheet1!$E$1</f>
         <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <f>[3]Sheet1!$G$2</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="9">
-        <f>[3]Sheet1!$E$1</f>
-        <v>7</v>
       </c>
       <c r="E4" s="19">
         <f>C4/D4</f>
-        <v>0.42857142857142855</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12">
-        <f>[3]Sheet1!$G$5</f>
-        <v>16</v>
+        <f>[2]Sheet1!$G$5</f>
+        <v>6</v>
       </c>
       <c r="H4" s="9">
-        <f>[3]Sheet1!$G$4</f>
-        <v>43</v>
+        <f>[2]Sheet1!$G$4</f>
+        <v>9</v>
       </c>
       <c r="I4" s="22">
         <f>G4/H4</f>
-        <v>0.37209302325581395</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -1000,36 +1047,36 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9">
-        <f>[4]Sheet1!$G$1</f>
-        <v>0</v>
+        <f>[3]Sheet1!$G$1</f>
+        <v>3</v>
       </c>
       <c r="C5" s="9">
-        <f>[4]Sheet1!$G$2</f>
-        <v>5</v>
+        <f>[3]Sheet1!$G$2</f>
+        <v>3</v>
       </c>
       <c r="D5" s="9">
-        <f>[4]Sheet1!$E$1</f>
-        <v>5</v>
+        <f>[3]Sheet1!$E$1</f>
+        <v>7</v>
       </c>
       <c r="E5" s="19">
         <f>C5/D5</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="12">
-        <f>[4]Sheet1!$G$5</f>
-        <v>62</v>
+        <f>[3]Sheet1!$G$5</f>
+        <v>16</v>
       </c>
       <c r="H5" s="9">
-        <f>[4]Sheet1!$G$4</f>
-        <v>62</v>
+        <f>[3]Sheet1!$G$4</f>
+        <v>43</v>
       </c>
       <c r="I5" s="22">
         <f>G5/H5</f>
-        <v>1</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
@@ -1037,42 +1084,42 @@
       </c>
       <c r="L5" s="4">
         <f xml:space="preserve"> SUM($H:$H)</f>
-        <v>478</v>
+        <v>560</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9">
-        <f>[5]Sheet1!$G$1</f>
+        <f>[4]Sheet1!$G$1</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <f>[4]Sheet1!$G$2</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <f>[4]Sheet1!$E$1</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="19">
+        <f>C6/D6</f>
         <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <f>[5]Sheet1!$G$2</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="9">
-        <f>[5]Sheet1!$E$1</f>
-        <v>15</v>
-      </c>
-      <c r="E6" s="19">
-        <f t="shared" ref="E6" si="2">C6/D6</f>
-        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12">
-        <f>[5]Sheet1!$G$5</f>
-        <v>38</v>
+        <f>[4]Sheet1!$G$5</f>
+        <v>62</v>
       </c>
       <c r="H6" s="9">
-        <f>[5]Sheet1!$G$4</f>
-        <v>80</v>
+        <f>[4]Sheet1!$G$4</f>
+        <v>62</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" ref="I6" si="3">G6/H6</f>
-        <v>0.47499999999999998</v>
+        <f>G6/H6</f>
+        <v>1</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
@@ -1080,26 +1127,50 @@
       </c>
       <c r="L6" s="4">
         <f xml:space="preserve"> SUM($G:$G)</f>
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9">
+        <f>[5]Sheet1!$G$1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <f>[5]Sheet1!$G$2</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <f>[5]Sheet1!$E$1</f>
+        <v>15</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" ref="E7" si="4">C7/D7</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="12">
+        <f>[5]Sheet1!$G$5</f>
+        <v>38</v>
+      </c>
+      <c r="H7" s="9">
+        <f>[5]Sheet1!$G$4</f>
+        <v>80</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" ref="I7" si="5">G7/H7</f>
+        <v>0.47499999999999998</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7">
         <f>L6/L5</f>
-        <v>0.70083682008368198</v>
+        <v>0.6339285714285714</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1181,6 +1252,14 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
